--- a/lithuania/Lithuania_reforms.xlsx
+++ b/lithuania/Lithuania_reforms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92BD008-3172-491D-ABF8-973F3F7D6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238738C9-846A-43FE-8363-839437146A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Baseline scenario</t>
   </si>
   <si>
-    <t>Scenario A: Top combined personal income tax rate from 38.98% to 33.98%; top capital gains rate from 20% to 27%; top dividend rate from 15% to 22%</t>
-  </si>
-  <si>
     <t>Scenario B: Capital allowance for machinery from 90.53% to 100%; capital allowance for intangibles from 96.61% to 100%.</t>
   </si>
   <si>
     <t>Scenario C: Combination of all changes from A and B.</t>
+  </si>
+  <si>
+    <t>Scenario A: Top combined personal income tax rate from 38.98% to 33.98%; top capital gains rate from 20% to 22%; top dividend rate from 15% to 22%</t>
   </si>
 </sst>
 </file>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1460,10 +1460,10 @@
         <v>2022</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>75.164640000000006</v>
+        <v>75.751310000000004</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1472,10 +1472,10 @@
         <v>85.262860000000003</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>74.877120000000005</v>
+        <v>77.219239999999999</v>
       </c>
       <c r="K11">
         <v>31</v>
@@ -1496,7 +1496,7 @@
         <v>73.789709999999999</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -1549,7 +1549,7 @@
         <v>73.789709999999999</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -1566,10 +1566,10 @@
         <v>2022</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>75.636219999999994</v>
+        <v>76.222920000000002</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1578,10 +1578,10 @@
         <v>86.955060000000003</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>74.877120000000005</v>
+        <v>77.219239999999999</v>
       </c>
       <c r="K13">
         <v>31</v>
@@ -1602,10 +1602,11 @@
         <v>73.789709999999999</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>